--- a/biology/Zoologie/Dermatemys_mawii/Dermatemys_mawii.xlsx
+++ b/biology/Zoologie/Dermatemys_mawii/Dermatemys_mawii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dermatemys mawii, unique représentant du genre Dermatemys, est une espèce de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatemys mawii, unique représentant du genre Dermatemys, est une espèce de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Belize ;
 au Guatemala ;
 au Mexique, dans les États de Veracruz, de Tabasco, du Chiapas, de Campeche et de Quintana Roo.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermatemys mawii est une tortue aquatique et nocturne qui vit dans les grandes rivières et lacs.. Elle atteint 65 cm et 20 kg. Sa carapace est généralement gris sombre ou presque noire, alors que le plastron présente une couleur crème.
 Pendant la période de reproduction, (de septembre à novembre), la femelle dépose grâce aux pluies d'automne, et aux crues qui s'ensuivent, de 6 à 20 œufs dans des bras d'eau qu'elle ne pourrait pas atteindre en temps normal.
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1847 : Description of a new genus of Emydae. Proceedings of the Zoological Society of London, vol. 15, p. 55–56 (texte intégral).</t>
         </is>
